--- a/MyBlogServer/Contact/messageList.xlsx
+++ b/MyBlogServer/Contact/messageList.xlsx
@@ -375,7 +375,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D34"/>
+  <dimension ref="A1:D36"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -862,9 +862,37 @@
         <v>2019-3-2 18:17:43</v>
       </c>
     </row>
+    <row r="35">
+      <c r="A35" t="str">
+        <v xml:space="preserve">ceshi </v>
+      </c>
+      <c r="B35" t="str">
+        <v>ww</v>
+      </c>
+      <c r="C35" t="str">
+        <v>sdasfas</v>
+      </c>
+      <c r="D35" t="str">
+        <v>2019-3-12 19:27:13</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="str">
+        <v>Fanyj</v>
+      </c>
+      <c r="B36" t="str">
+        <v xml:space="preserve">ai </v>
+      </c>
+      <c r="C36" t="str">
+        <v>123</v>
+      </c>
+      <c r="D36" t="str">
+        <v>2019-3-13 23:29:23</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:D34"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:D36"/>
   </ignoredErrors>
 </worksheet>
 </file>